--- a/docs/GUIslice_config_guide.xlsx
+++ b/docs/GUIslice_config_guide.xlsx
@@ -29,7 +29,31 @@
     <author>Cal</author>
   </authors>
   <commentList>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Use rpi-fbcp to mirror /dev/fb0 to /dev/fb1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +77,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thanks to Kevin Gordon at www.rescuerobot.org</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0">
+    <comment ref="N25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0">
+    <comment ref="I35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
   <si>
     <t>Arduino Pro Mini</t>
   </si>
@@ -325,9 +373,6 @@
   </si>
   <si>
     <t>LINUX</t>
-  </si>
-  <si>
-    <t>Prog Interface:</t>
   </si>
   <si>
     <t>GSLC_DEV_FB</t>
@@ -631,9 +676,6 @@
     <t>(mouse)</t>
   </si>
   <si>
-    <t>(RPi)</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -641,6 +683,42 @@
   </si>
   <si>
     <t>DRV_SDL_MOUSE_SHOW</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>(RPi - shell)</t>
+  </si>
+  <si>
+    <t>(RPi - Xwindows)</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>"/dev/fb0" ?</t>
+  </si>
+  <si>
+    <t>SDL1.2 in shell</t>
+  </si>
+  <si>
+    <t>SDL2 in shell</t>
+  </si>
+  <si>
+    <t>SDL2 in Xwindows</t>
+  </si>
+  <si>
+    <t>Use rpi-fbcp</t>
+  </si>
+  <si>
+    <t>Programming Interface:</t>
+  </si>
+  <si>
+    <t>SDL1.2 in shell?</t>
+  </si>
+  <si>
+    <t>Special Notes</t>
   </si>
 </sst>
 </file>
@@ -763,7 +841,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +878,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -829,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,6 +972,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1205,56 +1295,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
-    <col min="3" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="4" customWidth="1"/>
-    <col min="9" max="12" width="20.42578125" style="4" customWidth="1"/>
-    <col min="13" max="15" width="19.42578125" style="4" customWidth="1"/>
-    <col min="16" max="21" width="9.140625" style="4"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="9" width="18" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="4" customWidth="1"/>
+    <col min="11" max="14" width="20.42578125" style="4" customWidth="1"/>
+    <col min="15" max="17" width="19.42578125" style="4" customWidth="1"/>
+    <col min="18" max="23" width="9.140625" style="4"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="J2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1268,31 +1358,37 @@
         <v>39</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="L5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1303,366 +1399,394 @@
         <v>31</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="J12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="C14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="I14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="J14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1671,62 +1795,88 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>41</v>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1741,135 +1891,151 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>24</v>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="11" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1877,14 +2043,29 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="J24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1892,17 +2073,27 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1914,134 +2105,101 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>117</v>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2050,48 +2208,90 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -2100,24 +2300,16 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2126,278 +2318,320 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
       </c>
       <c r="D36" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="8">
+      <c r="I36" s="8">
         <v>1</v>
       </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
       <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8">
-        <v>10</v>
-      </c>
-      <c r="I39" s="8">
-        <v>10</v>
-      </c>
-      <c r="J39" s="11">
-        <v>53</v>
-      </c>
-      <c r="K39" s="8">
-        <v>10</v>
-      </c>
-      <c r="L39" s="8">
-        <v>10</v>
-      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
-        <v>4</v>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8">
-        <v>9</v>
-      </c>
-      <c r="I40" s="8">
-        <v>9</v>
-      </c>
-      <c r="J40" s="11">
-        <v>47</v>
-      </c>
-      <c r="K40" s="8">
-        <v>9</v>
-      </c>
-      <c r="L40" s="8">
-        <v>9</v>
-      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="11">
-        <v>49</v>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8">
+        <v>10</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8">
-        <v>11</v>
-      </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="L41" s="11">
+        <v>53</v>
+      </c>
+      <c r="M41" s="8">
+        <v>10</v>
+      </c>
+      <c r="N41" s="8">
+        <v>10</v>
+      </c>
       <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8">
-        <v>4</v>
-      </c>
-      <c r="I42" s="8">
-        <v>4</v>
-      </c>
-      <c r="J42" s="11">
-        <v>48</v>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8">
+        <v>9</v>
       </c>
       <c r="K42" s="8">
-        <v>4</v>
-      </c>
-      <c r="L42" s="8">
-        <v>4</v>
-      </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="L42" s="11">
+        <v>47</v>
+      </c>
+      <c r="M42" s="8">
+        <v>9</v>
+      </c>
+      <c r="N42" s="8">
+        <v>9</v>
+      </c>
       <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8">
-        <v>1</v>
-      </c>
-      <c r="I43" s="8">
-        <v>1</v>
-      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="8">
-        <v>1</v>
-      </c>
-      <c r="L43" s="8">
-        <v>1</v>
-      </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>49</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>11</v>
+      </c>
       <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2406,16 +2640,28 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="J44" s="8">
+        <v>4</v>
+      </c>
+      <c r="K44" s="8">
+        <v>4</v>
+      </c>
+      <c r="L44" s="11">
+        <v>48</v>
+      </c>
+      <c r="M44" s="8">
+        <v>4</v>
+      </c>
+      <c r="N44" s="8">
+        <v>4</v>
+      </c>
       <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="18" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2424,16 +2670,28 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="J45" s="8">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+      <c r="N45" s="8">
+        <v>1</v>
+      </c>
       <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
-        <v>114</v>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2448,54 +2706,52 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
-        <v>8</v>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
-        <v>1</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="17"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="17"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="16" t="s">
-        <v>101</v>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2504,87 +2760,93 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
       <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8">
-        <v>1</v>
-      </c>
-      <c r="I50" s="8">
-        <v>1</v>
-      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="8">
-        <v>1</v>
-      </c>
+      <c r="K50" s="17"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="18" t="s">
-        <v>10</v>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8">
-        <v>1</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
+      <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="8">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8">
         <v>1</v>
       </c>
-      <c r="J52" s="8"/>
       <c r="K52" s="8">
         <v>1</v>
       </c>
       <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
+      <c r="M52" s="8">
+        <v>1</v>
+      </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2592,16 +2854,24 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
+      <c r="J53" s="8">
+        <v>1</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
       <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="8">
+        <v>0</v>
+      </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="16" t="s">
-        <v>103</v>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2610,38 +2880,42 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
       <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
-        <v>115</v>
-      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="10">
-        <v>0</v>
-      </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10">
-        <v>0</v>
-      </c>
-      <c r="L55" s="10"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
-        <v>12</v>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2649,21 +2923,19 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="10">
-        <v>1</v>
-      </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10">
-        <v>1</v>
-      </c>
-      <c r="L56" s="10"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -2671,21 +2943,23 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="10">
-        <v>0</v>
-      </c>
-      <c r="J57" s="10"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
       <c r="K57" s="10">
         <v>0</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
+      <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10"/>
       <c r="O57" s="8"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2693,21 +2967,23 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10" t="s">
-        <v>19</v>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="10">
+        <v>1</v>
       </c>
       <c r="L58" s="10"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
+      <c r="M58" s="10">
+        <v>1</v>
+      </c>
+      <c r="N58" s="10"/>
       <c r="O58" s="8"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2715,21 +2991,23 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="10">
-        <v>8</v>
-      </c>
-      <c r="J59" s="10"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
       <c r="K59" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L59" s="10"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
+      <c r="M59" s="10">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10"/>
       <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -2737,21 +3015,23 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="11">
-        <v>230</v>
-      </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11">
-        <v>230</v>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L60" s="10"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
+      <c r="M60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="10"/>
       <c r="O60" s="8"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2759,21 +3039,23 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="11">
-        <v>260</v>
-      </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="11">
-        <v>260</v>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="10">
+        <v>8</v>
       </c>
       <c r="L61" s="10"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
+      <c r="M61" s="10">
+        <v>8</v>
+      </c>
+      <c r="N61" s="10"/>
       <c r="O61" s="8"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -2781,21 +3063,23 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="11">
-        <v>3800</v>
-      </c>
-      <c r="J62" s="10"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
       <c r="K62" s="11">
-        <v>3800</v>
+        <v>230</v>
       </c>
       <c r="L62" s="10"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
+      <c r="M62" s="11">
+        <v>230</v>
+      </c>
+      <c r="N62" s="10"/>
       <c r="O62" s="8"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -2803,100 +3087,158 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="11">
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="11">
+        <v>260</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="11">
+        <v>260</v>
+      </c>
+      <c r="N63" s="10"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="11">
+        <v>3800</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11">
+        <v>3800</v>
+      </c>
+      <c r="N64" s="10"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="11">
         <v>3700</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="11">
+      <c r="L65" s="10"/>
+      <c r="M65" s="11">
         <v>3700</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
+      <c r="N65" s="10"/>
       <c r="O65" s="8"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="18" t="s">
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B66" s="18"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B68" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="11">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="11">
         <v>40</v>
       </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId3"/>

--- a/docs/GUIslice_config_guide.xlsx
+++ b/docs/GUIslice_config_guide.xlsx
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cal:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Use rpi-fbcp to mirror /dev/fb0 to /dev/fb1</t>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cal:</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Note: As of GUIslice 0.8.4, mouse dragging not yet supported.</t>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cal:</t>
         </r>
@@ -94,14 +94,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Thanks to Kevin Gordon at www.rescuerobot.org</t>
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="0" shapeId="0">
+    <comment ref="N27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="0" shapeId="0">
+    <comment ref="I37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="L43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,11 +193,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
+Default Pin 53</t>
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="P43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
+Default Pin 53</t>
         </r>
       </text>
     </comment>
@@ -245,15 +245,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="L48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 51</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 51</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 52</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
-  <si>
-    <t>Arduino Pro Mini</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="168">
   <si>
     <t>Board</t>
   </si>
@@ -420,9 +609,6 @@
     <t>DRV_TOUCH_ADA_STMPE610</t>
   </si>
   <si>
-    <t>Arduino 2560</t>
-  </si>
-  <si>
     <t>Feather M0</t>
   </si>
   <si>
@@ -513,9 +699,6 @@
     <t>128x64</t>
   </si>
   <si>
-    <t>0.96" OLED</t>
-  </si>
-  <si>
     <t>SSD1306</t>
   </si>
   <si>
@@ -580,9 +763,6 @@
   </si>
   <si>
     <t>7 buttons</t>
-  </si>
-  <si>
-    <t>0.8.4</t>
   </si>
   <si>
     <t>ADAGFX_PIN_MOSI</t>
@@ -720,12 +900,104 @@
   <si>
     <t>Special Notes</t>
   </si>
+  <si>
+    <t>GUIslice by Calvin Hass</t>
+  </si>
+  <si>
+    <t>Libraries (Required)</t>
+  </si>
+  <si>
+    <t>Libraries (Optional)</t>
+  </si>
+  <si>
+    <t>GUIslice
+libsdl1.2-dev
+libsdl-ttf2.0-dev</t>
+  </si>
+  <si>
+    <t>PiTFT with Arduino</t>
+  </si>
+  <si>
+    <t>v1.1, Red PCB, Yellow Pins</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>GUIslice
+Adafruit_GFX
+Adafruit_ILI9341
+SPI</t>
+  </si>
+  <si>
+    <t>GUIslice
+Adafruit_GFX
+Adafruit_ILI9341
+Adafruit_STMPE610
+SPI
+Wire</t>
+  </si>
+  <si>
+    <t>GUIslice
+Adafruit_GFX
+Adafruit_ILI9341
+Adafruit_FT6206
+SPI
+Wire</t>
+  </si>
+  <si>
+    <t>libsdl-image1.2-dev</t>
+  </si>
+  <si>
+    <t>libsdl-image1.2-dev
+tslib, tslib-bin</t>
+  </si>
+  <si>
+    <t>ST7735</t>
+  </si>
+  <si>
+    <t>GUIslice
+Adafruit_GFX
+Adafruit_ST7735
+SPI</t>
+  </si>
+  <si>
+    <t>Arduino Pro Mini (3.3v 8MHz)</t>
+  </si>
+  <si>
+    <t>0.96" OLED 128x64</t>
+  </si>
+  <si>
+    <t>GUIslice
+Adafruit_GFX
+Adafruit_SSD1306
+SPI
+Wire</t>
+  </si>
+  <si>
+    <t>ATmega 2560</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>Low Memory</t>
+  </si>
+  <si>
+    <t>3.3v. Base Arduino has not enough mem for SSD1306</t>
+  </si>
+  <si>
+    <t>0.8.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,14 +1077,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -827,21 +1091,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +1135,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -911,9 +1174,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -953,13 +1216,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +1228,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,8 +1237,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1295,13 +1573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1311,562 +1589,647 @@
     <col min="3" max="9" width="18" style="4" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" style="4" customWidth="1"/>
     <col min="11" max="14" width="20.42578125" style="4" customWidth="1"/>
-    <col min="15" max="17" width="19.42578125" style="4" customWidth="1"/>
-    <col min="18" max="23" width="9.140625" style="4"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="18" width="19.42578125" style="4" customWidth="1"/>
+    <col min="19" max="24" width="9.140625" style="4"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="I6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="L6" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="M11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="O11" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="R12" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="23" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="D15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="25"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+    </row>
+    <row r="16" spans="1:24" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -1875,70 +2238,95 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>146</v>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1955,31 +2343,61 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1987,28 +2405,19 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>24</v>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2017,24 +2426,19 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2043,28 +2447,35 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2074,26 +2485,31 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K25" s="8"/>
       <c r="L25" s="8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2101,16 +2517,36 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
+      <c r="J26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2118,19 +2554,34 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="J27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2142,64 +2593,33 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>116</v>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2208,84 +2628,72 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="P30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2294,58 +2702,98 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -2354,32 +2802,17 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -2388,31 +2821,32 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2422,31 +2856,32 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2456,25 +2891,26 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
@@ -2482,34 +2918,41 @@
       <c r="I38" s="8">
         <v>1</v>
       </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2518,31 +2961,61 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2550,28 +3023,19 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="8">
-        <v>10</v>
-      </c>
-      <c r="K41" s="8">
-        <v>10</v>
-      </c>
-      <c r="L41" s="11">
-        <v>53</v>
-      </c>
-      <c r="M41" s="8">
-        <v>10</v>
-      </c>
-      <c r="N41" s="8">
-        <v>10</v>
-      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="18" t="s">
-        <v>4</v>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B42" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2580,28 +3044,19 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8">
-        <v>9</v>
-      </c>
-      <c r="K42" s="8">
-        <v>9</v>
-      </c>
-      <c r="L42" s="11">
-        <v>47</v>
-      </c>
-      <c r="M42" s="8">
-        <v>9</v>
-      </c>
-      <c r="N42" s="8">
-        <v>9</v>
-      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
-        <v>5</v>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2611,27 +3066,34 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K43" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L43" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M43" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N43" s="8">
-        <v>11</v>
-      </c>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="O43" s="11">
+        <v>10</v>
+      </c>
+      <c r="P43" s="11">
+        <v>53</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>10</v>
+      </c>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="17" t="s">
+        <v>3</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2641,27 +3103,34 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8">
+        <v>9</v>
+      </c>
+      <c r="K44" s="8">
+        <v>9</v>
+      </c>
+      <c r="L44" s="11">
+        <v>47</v>
+      </c>
+      <c r="M44" s="8">
+        <v>9</v>
+      </c>
+      <c r="N44" s="8">
+        <v>9</v>
+      </c>
+      <c r="O44" s="11">
+        <v>9</v>
+      </c>
+      <c r="P44" s="11">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>9</v>
+      </c>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="K44" s="8">
-        <v>4</v>
-      </c>
-      <c r="L44" s="11">
-        <v>48</v>
-      </c>
-      <c r="M44" s="8">
-        <v>4</v>
-      </c>
-      <c r="N44" s="8">
-        <v>4</v>
-      </c>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2671,27 +3140,34 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="8">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>49</v>
       </c>
       <c r="M45" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="8">
-        <v>1</v>
-      </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="22" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="O45" s="11">
+        <v>8</v>
+      </c>
+      <c r="P45" s="11">
+        <v>49</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>8</v>
+      </c>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2700,18 +3176,29 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
+      <c r="J46" s="8">
+        <v>4</v>
+      </c>
+      <c r="K46" s="8">
+        <v>4</v>
+      </c>
+      <c r="L46" s="11">
+        <v>48</v>
+      </c>
+      <c r="M46" s="8">
+        <v>4</v>
+      </c>
+      <c r="N46" s="8">
+        <v>4</v>
+      </c>
       <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
+      <c r="P46" s="11"/>
       <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="22" t="s">
-        <v>112</v>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2720,18 +3207,35 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="22" t="s">
-        <v>113</v>
+      <c r="J47" s="8">
+        <v>1</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1</v>
+      </c>
+      <c r="N47" s="8">
+        <v>1</v>
+      </c>
+      <c r="O47" s="8">
+        <v>1</v>
+      </c>
+      <c r="P47" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>1</v>
+      </c>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2748,10 +3252,11 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>8</v>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2760,27 +3265,20 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
-        <v>1</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0</v>
-      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2789,17 +3287,18 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="17"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="17"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="16" t="s">
-        <v>100</v>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2808,19 +3307,34 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
-        <v>9</v>
-      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2828,24 +3342,19 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-      <c r="K52" s="8">
-        <v>1</v>
-      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="8">
-        <v>1</v>
-      </c>
+      <c r="M52" s="16"/>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
-        <v>10</v>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -2854,24 +3363,19 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8">
-        <v>1</v>
-      </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
+      <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
-        <v>11</v>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -2881,7 +3385,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="8">
         <v>1</v>
@@ -2894,9 +3398,12 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2904,18 +3411,25 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="J55" s="8">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
       <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="M55" s="8">
+        <v>0</v>
+      </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="16" t="s">
-        <v>102</v>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -2924,19 +3438,24 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1</v>
+      </c>
       <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2945,21 +3464,18 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="10">
-        <v>0</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10">
-        <v>0</v>
-      </c>
-      <c r="N57" s="10"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="18" t="s">
-        <v>12</v>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2969,21 +3485,18 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="10">
-        <v>1</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10">
-        <v>1</v>
-      </c>
-      <c r="N58" s="10"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="18" t="s">
-        <v>115</v>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3004,10 +3517,11 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="18" t="s">
-        <v>13</v>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3017,21 +3531,22 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="10" t="s">
-        <v>19</v>
+      <c r="K60" s="10">
+        <v>1</v>
       </c>
       <c r="L60" s="10"/>
-      <c r="M60" s="10" t="s">
-        <v>19</v>
+      <c r="M60" s="10">
+        <v>1</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="18" t="s">
-        <v>14</v>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3042,20 +3557,21 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N61" s="10"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="18" t="s">
-        <v>15</v>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3065,21 +3581,22 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="11">
-        <v>230</v>
+      <c r="K62" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L62" s="10"/>
-      <c r="M62" s="11">
-        <v>230</v>
+      <c r="M62" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="N62" s="10"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
-        <v>16</v>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3089,21 +3606,22 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="11">
-        <v>260</v>
+      <c r="K63" s="10">
+        <v>8</v>
       </c>
       <c r="L63" s="10"/>
-      <c r="M63" s="11">
-        <v>260</v>
+      <c r="M63" s="10">
+        <v>8</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="s">
-        <v>17</v>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3114,20 +3632,21 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="11">
-        <v>3800</v>
+        <v>230</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="11">
-        <v>3800</v>
+        <v>230</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="18" t="s">
-        <v>18</v>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3138,101 +3657,156 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="11">
-        <v>3700</v>
+        <v>260</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="11">
-        <v>3700</v>
+        <v>260</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="11">
+        <v>3800</v>
+      </c>
+      <c r="L66" s="10"/>
+      <c r="M66" s="11">
+        <v>3800</v>
+      </c>
+      <c r="N66" s="10"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
+      <c r="R66" s="8"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="11">
+        <v>3700</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11">
+        <v>3700</v>
+      </c>
+      <c r="N67" s="10"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="11">
-        <v>40</v>
-      </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
+      <c r="R67" s="8"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="17"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>120</v>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="11">
+        <v>40</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/GUIslice_config_guide.xlsx
+++ b/docs/GUIslice_config_guide.xlsx
@@ -49,11 +49,84 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Use rpi-fbcp to mirror /dev/fb0 to /dev/fb1</t>
+See Special Notes details below</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+See Special Notes details below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Touch input doesn't work. Mouse input does.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE:
+- Touch only works if mouse cursor enabled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0" shapeId="0">
+    <comment ref="P15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="Q15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +194,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Thanks to Kevin Gordon at www.rescuerobot.org</t>
+Thanks to Kevin Gordon at www.rescuerobot.org
+NOTE:
+- Issues may exist when "software" renderer selected (DRV_SDL_RENDER_ACCEL=0).
+- Operation with OpenGL (DRV_SDL_RENDER_ACCEL=1, default SDL2 install) is very slow.
+- Operation with OpenGL ES2 not yet tested but should be fast. (DRV_SDL_RENDER_ACCEL=1, custom SDL2 install).</t>
         </r>
       </text>
     </comment>
@@ -250,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="H20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +379,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Version: 2016/09/23
+From: https://learn.adafruit.com/adafruit-2-8-pitft-capacitive-touch/easy-install</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +450,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://rcn-ee.net/rootfs/bb.org/testing/2017-02-05/lxqt-4gb/bone-debian-8.7-lxqt-4gb-armhf-2017-02-05-4gb.img.xz</t>
+Full version (not Lite)
+Version: 2016/09/23
+From: https://learn.adafruit.com/adafruit-2-8-pitft-capacitive-touch/easy-install</t>
         </r>
       </text>
     </comment>
@@ -372,11 +476,85 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://rcn-ee.net/rootfs/bb.org/testing/2017-02-05/lxqt-4gb/bone-debian-8.7-lxqt-4gb-armhf-2017-02-05-4gb.img.xz</t>
+Full version (not Lite)
+Version: 2016/09/23
+From: https://learn.adafruit.com/adafruit-2-8-pitft-capacitive-touch/easy-install</t>
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="0" shapeId="0">
+    <comment ref="O20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://rcn-ee.net/rootfs/bb.org/testing/2017-02-05/lxqt-4gb/bone-debian-8.7-lxqt-4gb-armhf-2017-02-05-4gb.img.xz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://rcn-ee.net/rootfs/bb.org/testing/2017-02-05/lxqt-4gb/bone-debian-8.7-lxqt-4gb-armhf-2017-02-05-4gb.img.xz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://rcn-ee.net/rootfs/bb.org/testing/2017-02-05/lxqt-4gb/bone-debian-8.7-lxqt-4gb-armhf-2017-02-05-4gb.img.xz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L38" authorId="0" shapeId="0">
+    <comment ref="O38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -500,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M38" authorId="0" shapeId="0">
+    <comment ref="P38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +727,511 @@
         </r>
       </text>
     </comment>
-    <comment ref="P45" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Defaults to "RPI"?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Defaults to "RPI"?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Seems that "fbcon" may also work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Defaults to "RPI"?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TODO: Test "x11" here?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Recommend DRV_SDL_FIX_START=0. Please see wiki notes for details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: Touch only seems to work if mouse shown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Can use either 0,1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Can use either 0,1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Can use either 0,1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: SDL2 under X w/ software rendering seems unstable (sometimes doesn't show display, looks like a hang). Therefore, a value of 1 is recommended at this time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: SDL2 under X w/ software rendering seems unstable (sometimes doesn't show display, looks like a hang). Therefore, a value of 1 is recommended at this time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: SDL2 under X w/ software rendering seems unstable (sometimes doesn't show display, looks like a hang). Therefore, a value of 1 is recommended at this time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: SDL2 under X w/ software rendering seems unstable (sometimes doesn't show display, looks like a hang). Therefore, a value of 1 is recommended at this time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NOTE: SDL2 under X w/ software rendering seems unstable (sometimes doesn't show display, looks like a hang). Therefore, a value of 1 is recommended at this time.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T45" authorId="0" shapeId="0">
+    <comment ref="X46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,78 +1276,6 @@
           </rPr>
           <t xml:space="preserve">
 Default Pin 53</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cal:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cal:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Default Pin 51</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cal:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Default Pin 51</t>
         </r>
       </text>
     </comment>
@@ -693,7 +1303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0" shapeId="0">
+    <comment ref="T51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -713,11 +1323,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Default Pin 50</t>
+Default Pin 51</t>
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="0" shapeId="0">
+    <comment ref="X51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +1347,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Default Pin 50</t>
+Default Pin 51</t>
         </r>
       </text>
     </comment>
@@ -765,7 +1375,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="P52" authorId="0" shapeId="0">
+    <comment ref="T52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Default Pin 50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only used if hardware SPI disabled (ADAGFX_SPI_HW=0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +1471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T52" authorId="0" shapeId="0">
+    <comment ref="X53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0" shapeId="0">
+    <comment ref="B75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -834,6 +1516,78 @@
           </rPr>
           <t xml:space="preserve">
 Used only for LINUX compilation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D89" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Do not use "apt-get install tslib" as that version is very old</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C91" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Use rpi-fbcp to mirror from /dev/fb0 to /dev/fb1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Disable the blinking cursor in the terminal so that it doesn't appear through to the display</t>
         </r>
       </text>
     </comment>
@@ -842,7 +1596,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="233">
   <si>
     <t>Board</t>
   </si>
@@ -1181,9 +1935,6 @@
   </si>
   <si>
     <t>Waiting to Test</t>
-  </si>
-  <si>
-    <t>NOTE:</t>
   </si>
   <si>
     <r>
@@ -1268,9 +2019,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Use rpi-fbcp</t>
-  </si>
-  <si>
     <t>Programming Interface:</t>
   </si>
   <si>
@@ -1362,9 +2110,6 @@
     <t>3.3v. Base Arduino has not enough mem for SSD1306</t>
   </si>
   <si>
-    <t>0.8.5</t>
-  </si>
-  <si>
     <t>GUIslice
 libsdl2-dev
 libsdl2-ttf-dev</t>
@@ -1475,12 +2220,6 @@
     <t>GSLC_LIB_EXTRA</t>
   </si>
   <si>
-    <t>-lts</t>
-  </si>
-  <si>
-    <t>-ts</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -1490,31 +2229,178 @@
     <t>Config 18</t>
   </si>
   <si>
-    <t>GUIslice
-libsdl2-dev
-libsdl2-ttf-dev
-libts-dev</t>
+    <t>Config 19</t>
+  </si>
+  <si>
+    <t>Config 20</t>
+  </si>
+  <si>
+    <t>-lm -ts</t>
+  </si>
+  <si>
+    <t>-lm</t>
+  </si>
+  <si>
+    <t>SDL1.2 in X w/ touch</t>
+  </si>
+  <si>
+    <t>DRV_SDL_RENDER_ACCEL</t>
+  </si>
+  <si>
+    <t>0.8.7</t>
+  </si>
+  <si>
+    <t>Config 21</t>
+  </si>
+  <si>
+    <t>Config 22</t>
+  </si>
+  <si>
+    <t>Config 23</t>
+  </si>
+  <si>
+    <t>-lm -lts</t>
+  </si>
+  <si>
+    <t>- rpi-fbcp
+- disable cursor</t>
+  </si>
+  <si>
+    <t>SPECIAL NOTES:</t>
+  </si>
+  <si>
+    <t>In /etc/rc.local, add: /usr/local/bin/fbcp &amp;</t>
+  </si>
+  <si>
+    <t>In /boot/cmdline.txt, add: vt.global_cursor_default=0</t>
+  </si>
+  <si>
+    <t>LEGEND:</t>
   </si>
   <si>
     <t>GUIslice
 libsdl1.2-dev
 libsdl-ttf2.0-dev
-libts-dev</t>
-  </si>
-  <si>
-    <t>To Debug</t>
-  </si>
-  <si>
-    <t>Config 19</t>
-  </si>
-  <si>
-    <t>To Retest (other)</t>
-  </si>
-  <si>
-    <t>GUIslice
+kergoth/tslib</t>
+  </si>
+  <si>
+    <t>LIBRARY INSTALL:</t>
+  </si>
+  <si>
+    <t>GUIslice</t>
+  </si>
+  <si>
+    <t>See wiki for details</t>
+  </si>
+  <si>
+    <t>libsdl1.2-dev</t>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl1.2-dev</t>
+  </si>
+  <si>
+    <t>libsdl2-dev</t>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl2-dev</t>
+  </si>
+  <si>
+    <t>libsdl-ttf2.0-dev</t>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl-ttf2.0-dev</t>
+  </si>
+  <si>
+    <t>libsdl2-ttf-dev</t>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl2-ttf-dev</t>
+  </si>
+  <si>
+    <t>kergoth/tslib</t>
+  </si>
+  <si>
+    <t>fbcp</t>
+  </si>
+  <si>
+    <t>disable cursor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUIslice
 libsdl1.2-dev
 libsdl-ttf2.0-dev
-libts-dev (?)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kergoth/tslib</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUIslice
+libsdl2-dev
+libsdl2-ttf-dev
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kergoth/tslib</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUIslice
+libsdl1.2-dev
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libsdl-ttf2.0-dev
+kergoth/tslib</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl-image1.2-dev</t>
+  </si>
+  <si>
+    <t>sudo apt-get install libsdl2-image-dev</t>
+  </si>
+  <si>
+    <t>(Last tested version 1.8)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUIslice
+libsdl2-dev
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>libsdl2-ttf-dev
+kergoth/tslib</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1700,13 +2586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +2625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1842,14 +2728,23 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2166,128 +3061,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
-    <col min="3" max="13" width="18" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="3" customWidth="1"/>
-    <col min="15" max="18" width="20.42578125" style="3" customWidth="1"/>
-    <col min="19" max="22" width="19.42578125" style="3" customWidth="1"/>
-    <col min="23" max="28" width="9.140625" style="3"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="17" width="18" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="3" customWidth="1"/>
+    <col min="19" max="22" width="20.42578125" style="3" customWidth="1"/>
+    <col min="23" max="26" width="19.42578125" style="3" customWidth="1"/>
+    <col min="27" max="32" width="9.140625" style="3"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="G2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="L5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="P5" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z5" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
@@ -2316,41 +3223,53 @@
         <v>38</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="O6" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="R6" s="35" t="s">
+      <c r="T6" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="V6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="V6" s="35"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" s="35"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
@@ -2361,112 +3280,136 @@
         <v>30</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="L7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="35" t="s">
+      <c r="M7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="P7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="Q7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="S7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="T7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="U7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="W7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="V7" s="35" t="s">
+      <c r="X7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z7" s="35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>165</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>142</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>61</v>
       </c>
@@ -2477,61 +3420,73 @@
         <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="S9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>102</v>
       </c>
@@ -2542,61 +3497,73 @@
         <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="W10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>103</v>
       </c>
@@ -2607,61 +3574,73 @@
         <v>71</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="L11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="4" t="s">
+      <c r="T11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="V11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>99</v>
       </c>
@@ -2672,61 +3651,73 @@
         <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>101</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>101</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>66</v>
       </c>
@@ -2736,56 +3727,70 @@
       <c r="D13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="M13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
       <c r="V13" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B14" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="18"/>
+      <c r="D14" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>206</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -2794,84 +3799,88 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="O14" s="18" t="s">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="P14" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
+      <c r="Z14" s="18"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>74</v>
+      <c r="D15" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>74</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>202</v>
+      <c r="I15" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="O15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="Q15" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>74</v>
@@ -2879,147 +3888,183 @@
       <c r="S15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="V15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="V15" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="E16" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>144</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="V16" s="16"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
+        <v>143</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="2:28" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+    </row>
+    <row r="17" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="N17" s="16"/>
+        <v>166</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="O17" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3041,8 +4086,12 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
@@ -3080,16 +4129,16 @@
         <v>39</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>58</v>
@@ -3103,56 +4152,80 @@
       <c r="U19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="V19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="M20" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -3174,10 +4247,14 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
@@ -3213,32 +4290,44 @@
         <v>39</v>
       </c>
       <c r="N22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="U22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -3260,8 +4349,12 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -3285,8 +4378,12 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" s="31" t="s">
         <v>0</v>
       </c>
@@ -3323,33 +4420,45 @@
       <c r="M25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="S25" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>91</v>
       </c>
       <c r="U25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" s="31" t="s">
         <v>23</v>
       </c>
@@ -3386,29 +4495,41 @@
       <c r="M26" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S26" s="5"/>
       <c r="T26" s="5" t="s">
         <v>92</v>
       </c>
       <c r="U26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="31" t="s">
         <v>25</v>
       </c>
@@ -3445,33 +4566,45 @@
       <c r="M27" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="S27" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="U27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
         <v>33</v>
       </c>
@@ -3508,33 +4641,45 @@
       <c r="M28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="U28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -3551,13 +4696,17 @@
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
+      <c r="R29" s="20"/>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="V29" s="21"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -3579,8 +4728,12 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" s="29" t="s">
         <v>22</v>
       </c>
@@ -3604,8 +4757,12 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" s="31" t="s">
         <v>110</v>
       </c>
@@ -3616,16 +4773,16 @@
         <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>51</v>
@@ -3634,25 +4791,25 @@
         <v>51</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>45</v>
@@ -3669,8 +4826,20 @@
       <c r="V32" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="31" t="s">
         <v>110</v>
       </c>
@@ -3685,35 +4854,39 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
       <c r="R33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="S33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="X33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="Y33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="V33" s="28" t="s">
+      <c r="Z33" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="31" t="s">
         <v>111</v>
       </c>
@@ -3721,64 +4894,76 @@
         <v>52</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>52</v>
       </c>
+      <c r="I34" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="J34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>52</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="S34" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>94</v>
       </c>
       <c r="U34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="W34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z34" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="31" t="s">
         <v>111</v>
       </c>
@@ -3802,8 +4987,12 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="31"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -3825,8 +5014,12 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="31" t="s">
         <v>40</v>
       </c>
@@ -3843,10 +5036,10 @@
         <v>53</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>53</v>
@@ -3855,7 +5048,7 @@
         <v>53</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>53</v>
@@ -3863,17 +5056,17 @@
       <c r="M37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O37" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>72</v>
+      <c r="N37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="R37" s="22" t="s">
         <v>72</v>
@@ -3890,8 +5083,20 @@
       <c r="V37" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z37" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="31" t="s">
         <v>41</v>
       </c>
@@ -3899,46 +5104,46 @@
         <v>49</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="M38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="O38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="P38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N38" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q38" s="22" t="s">
-        <v>72</v>
+      <c r="Q38" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="R38" s="22" t="s">
         <v>72</v>
@@ -3955,55 +5160,67 @@
       <c r="V38" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="N39" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q39" s="22" t="s">
-        <v>72</v>
+        <v>161</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="R39" s="22" t="s">
         <v>72</v>
@@ -4020,19 +5237,31 @@
       <c r="V39" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z39" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -4050,25 +5279,25 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="5">
-        <v>1</v>
-      </c>
-      <c r="N40" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O40" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q40" s="22" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0</v>
       </c>
       <c r="R40" s="22" t="s">
         <v>72</v>
@@ -4085,10 +5314,22 @@
       <c r="V40" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -4097,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -4109,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="5">
         <v>1</v>
@@ -4121,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>72</v>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
       </c>
       <c r="R41" s="22" t="s">
         <v>72</v>
@@ -4150,97 +5391,173 @@
       <c r="V41" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z41" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="38">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0</v>
+      </c>
+      <c r="J42" s="39">
+        <v>1</v>
+      </c>
+      <c r="K42" s="39">
+        <v>1</v>
+      </c>
+      <c r="L42" s="39">
+        <v>1</v>
+      </c>
+      <c r="M42" s="39">
+        <v>1</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>1</v>
+      </c>
+      <c r="R42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="V42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z42" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I43" s="5">
         <v>1</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K43" s="5">
         <v>1</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L43" s="5">
         <v>1</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M43" s="5">
         <v>1</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1</v>
+      </c>
+      <c r="R43" s="5">
         <v>0</v>
       </c>
-      <c r="O42" s="5">
+      <c r="S43" s="5">
         <v>0</v>
       </c>
-      <c r="P42" s="5">
+      <c r="T43" s="5">
         <v>0</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="U43" s="5">
         <v>0</v>
       </c>
-      <c r="R42" s="5">
+      <c r="V43" s="5">
         <v>0</v>
       </c>
-      <c r="S42" s="5">
+      <c r="W43" s="5">
         <v>0</v>
       </c>
-      <c r="T42" s="5">
+      <c r="X43" s="5">
         <v>0</v>
       </c>
-      <c r="U42" s="5">
+      <c r="Y43" s="5">
         <v>0</v>
       </c>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="31"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="31"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
@@ -4261,367 +5578,413 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="33" t="s">
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N45" s="5">
+      <c r="C46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R46" s="5">
         <v>10</v>
       </c>
-      <c r="O45" s="5">
+      <c r="S46" s="5">
         <v>10</v>
       </c>
-      <c r="P45" s="7">
+      <c r="T46" s="7">
         <v>53</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="U46" s="5">
         <v>10</v>
       </c>
-      <c r="R45" s="5">
+      <c r="V46" s="5">
         <v>10</v>
       </c>
-      <c r="S45" s="7">
+      <c r="W46" s="7">
         <v>10</v>
       </c>
-      <c r="T45" s="7">
+      <c r="X46" s="7">
         <v>53</v>
       </c>
-      <c r="U45" s="7">
+      <c r="Y46" s="7">
         <v>10</v>
       </c>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="s">
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B47" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N46" s="5">
+      <c r="C47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q47" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" s="5">
         <v>9</v>
       </c>
-      <c r="O46" s="5">
+      <c r="S47" s="5">
         <v>9</v>
       </c>
-      <c r="P46" s="7">
+      <c r="T47" s="7">
         <v>47</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="U47" s="5">
         <v>9</v>
       </c>
-      <c r="R46" s="5">
+      <c r="V47" s="5">
         <v>9</v>
       </c>
-      <c r="S46" s="7">
+      <c r="W47" s="7">
         <v>9</v>
       </c>
-      <c r="T46" s="7">
+      <c r="X47" s="7">
         <v>47</v>
       </c>
-      <c r="U46" s="7">
+      <c r="Y47" s="7">
         <v>9</v>
       </c>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="33" t="s">
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N47" s="5">
+      <c r="C48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R48" s="5">
         <v>0</v>
       </c>
-      <c r="O47" s="5">
+      <c r="S48" s="5">
         <v>0</v>
       </c>
-      <c r="P47" s="7">
+      <c r="T48" s="7">
         <v>49</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="U48" s="5">
         <v>0</v>
       </c>
-      <c r="R47" s="5">
+      <c r="V48" s="5">
         <v>11</v>
       </c>
-      <c r="S47" s="7">
+      <c r="W48" s="7">
         <v>8</v>
       </c>
-      <c r="T47" s="7">
+      <c r="X48" s="7">
         <v>49</v>
       </c>
-      <c r="U47" s="7">
+      <c r="Y48" s="7">
         <v>8</v>
       </c>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="33" t="s">
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B49" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N48" s="5">
+      <c r="C49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q49" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R49" s="5">
         <v>4</v>
       </c>
-      <c r="O48" s="5">
+      <c r="S49" s="5">
         <v>4</v>
       </c>
-      <c r="P48" s="7">
+      <c r="T49" s="7">
         <v>48</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="U49" s="5">
         <v>4</v>
       </c>
-      <c r="R48" s="5">
+      <c r="V49" s="5">
         <v>4</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B49" s="33" t="s">
+      <c r="W49" s="5"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B50" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N49" s="5">
+      <c r="C50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R50" s="5">
         <v>1</v>
       </c>
-      <c r="O49" s="5">
+      <c r="S50" s="5">
         <v>1</v>
       </c>
-      <c r="P49" s="5">
+      <c r="T50" s="5">
         <v>1</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="U50" s="5">
         <v>1</v>
       </c>
-      <c r="R49" s="5">
+      <c r="V50" s="5">
         <v>1</v>
       </c>
-      <c r="S49" s="5">
+      <c r="W50" s="5">
         <v>1</v>
       </c>
-      <c r="T49" s="5">
+      <c r="X50" s="5">
         <v>1</v>
       </c>
-      <c r="U49" s="5">
+      <c r="Y50" s="5">
         <v>1</v>
       </c>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="34" t="s">
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
-        <v>106</v>
-      </c>
       <c r="C51" s="22" t="s">
         <v>72</v>
       </c>
@@ -4655,19 +6018,31 @@
       <c r="M51" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
+      <c r="N51" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q51" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>72</v>
@@ -4702,106 +6077,164 @@
       <c r="M52" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="N52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="s">
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B53" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B54" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N53" s="5">
+      <c r="C54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R54" s="5">
         <v>0</v>
       </c>
-      <c r="O53" s="7">
+      <c r="S54" s="7">
         <v>1</v>
       </c>
-      <c r="P53" s="5">
+      <c r="T54" s="5">
         <v>0</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="U54" s="7">
         <v>1</v>
       </c>
-      <c r="R53" s="5">
+      <c r="V54" s="5">
         <v>0</v>
       </c>
-      <c r="S53" s="5">
+      <c r="W54" s="5">
         <v>0</v>
       </c>
-      <c r="T53" s="5">
+      <c r="X54" s="5">
         <v>0</v>
       </c>
-      <c r="U53" s="5">
+      <c r="Y54" s="5">
         <v>0</v>
       </c>
-      <c r="V53" s="5"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="31"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B55" s="31"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -4818,227 +6251,271 @@
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
+      <c r="S55" s="23"/>
       <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
+      <c r="U55" s="23"/>
       <c r="V55" s="20"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" t="s">
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B56" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B57" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N56" s="5">
+      <c r="C57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R57" s="5">
         <v>1</v>
       </c>
-      <c r="O56" s="5">
+      <c r="S57" s="5">
         <v>1</v>
       </c>
-      <c r="P56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q56" s="5">
+      <c r="T57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U57" s="5">
         <v>1</v>
       </c>
-      <c r="R56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U56" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="33" t="s">
+      <c r="V57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y57" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z57" s="5"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B58" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N57" s="5">
+      <c r="C58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R58" s="5">
         <v>1</v>
       </c>
-      <c r="O57" s="5">
+      <c r="S58" s="5">
         <v>0</v>
       </c>
-      <c r="P57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="5">
+      <c r="T58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U58" s="5">
         <v>0</v>
       </c>
-      <c r="R57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U57" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="33" t="s">
+      <c r="V58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y58" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B59" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N58" s="5">
+      <c r="C59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R59" s="5">
         <v>0</v>
       </c>
-      <c r="O58" s="5">
+      <c r="S59" s="5">
         <v>1</v>
       </c>
-      <c r="P58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q58" s="5">
+      <c r="T59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U59" s="5">
         <v>1</v>
       </c>
-      <c r="R58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U58" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="33"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="V59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y59" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B60" s="33"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -5059,583 +6536,699 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B61" s="33" t="s">
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B61" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B62" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="6">
+      <c r="C62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R62" s="5"/>
+      <c r="S62" s="6">
         <v>0</v>
       </c>
-      <c r="P61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q61" s="6">
+      <c r="T62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U62" s="6">
         <v>0</v>
       </c>
-      <c r="R61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U61" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B62" s="33" t="s">
+      <c r="V62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B63" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="6">
+      <c r="C63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="6">
         <v>1</v>
       </c>
-      <c r="P62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q62" s="6">
+      <c r="T63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U63" s="6">
         <v>1</v>
       </c>
-      <c r="R62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B63" s="33" t="s">
+      <c r="V63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y63" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B64" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N63" s="5"/>
-      <c r="O63" s="6">
+      <c r="C64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R64" s="5"/>
+      <c r="S64" s="6">
         <v>0</v>
       </c>
-      <c r="P63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q63" s="6">
+      <c r="T64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U64" s="6">
         <v>0</v>
       </c>
-      <c r="R63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U63" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B64" s="33" t="s">
+      <c r="V64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B65" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="6" t="s">
+      <c r="C65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R65" s="5"/>
+      <c r="S65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q64" s="6" t="s">
+      <c r="T65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="33" t="s">
+      <c r="V65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z65" s="5"/>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B66" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N65" s="5"/>
-      <c r="O65" s="6">
+      <c r="C66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R66" s="5"/>
+      <c r="S66" s="6">
         <v>8</v>
       </c>
-      <c r="P65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q65" s="6">
+      <c r="T66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U66" s="6">
         <v>8</v>
       </c>
-      <c r="R65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="33" t="s">
+      <c r="V66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N66" s="5"/>
-      <c r="O66" s="7">
+      <c r="C67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="7">
         <v>230</v>
       </c>
-      <c r="P66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q66" s="7">
+      <c r="T67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U67" s="7">
         <v>230</v>
       </c>
-      <c r="R66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U66" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="33" t="s">
+      <c r="V67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y67" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N67" s="5"/>
-      <c r="O67" s="7">
+      <c r="C68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="7">
         <v>260</v>
       </c>
-      <c r="P67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q67" s="7">
+      <c r="T68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U68" s="7">
         <v>260</v>
       </c>
-      <c r="R67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="33" t="s">
+      <c r="V68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y68" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="7">
+      <c r="C69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R69" s="5"/>
+      <c r="S69" s="7">
         <v>3800</v>
       </c>
-      <c r="P68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="7">
+      <c r="T69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" s="7">
         <v>3800</v>
       </c>
-      <c r="R68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="33" t="s">
+      <c r="V69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y69" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="7">
+      <c r="C70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R70" s="5"/>
+      <c r="S70" s="7">
         <v>3700</v>
       </c>
-      <c r="P69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q69" s="7">
+      <c r="T70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U70" s="7">
         <v>3700</v>
       </c>
-      <c r="R69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U69" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V69" s="5"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="33"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="V70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y70" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71" s="33"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -5652,97 +7245,117 @@
       <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="33" t="s">
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B73" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N72" s="7">
+      <c r="C73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R73" s="7">
         <v>40</v>
       </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="31"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="29" t="s">
-        <v>190</v>
-      </c>
+      <c r="S73" s="5"/>
+      <c r="T73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y73" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z73" s="5"/>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74" s="31"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
@@ -5763,141 +7376,298 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="V76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z76" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B77" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="R75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U75" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V75" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="R76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="T76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="U76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V76" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
+      <c r="C77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="P77" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q77" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="V77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="X77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y77" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z77" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>114</v>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C83" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C89" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C92" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>